--- a/simulation/one-taxi/output/结合边缘比较/对比-司机巡游时间.xlsx
+++ b/simulation/one-taxi/output/结合边缘比较/对比-司机巡游时间.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE7D67B-E896-404E-B8A4-3EE59763BD35}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEBCACE-9DC0-4C62-A173-C0BB177F0679}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3930" yWindow="855" windowWidth="23625" windowHeight="13065" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="cdf" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -27,17 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>DQN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Greedy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Random</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -45,11 +37,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D-DQN</t>
+    <t>计算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计算</t>
+    <t>Edge-DQN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thur</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cdf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,7 +201,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DQN</c:v>
+                  <c:v>D</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -507,304 +534,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>53657.142857142797</c:v>
+                  <c:v>104.28571428571399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54500</c:v>
+                  <c:v>94.142857142857096</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47657.142857142797</c:v>
+                  <c:v>82.714285714285694</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48285.714285714203</c:v>
+                  <c:v>128.42857142857099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51814.285714285703</c:v>
+                  <c:v>104.428571428571</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59528.571428571398</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56628.571428571398</c:v>
+                  <c:v>91.142857142857096</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55300</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51028.571428571398</c:v>
+                  <c:v>92.142857142857096</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54885.714285714203</c:v>
+                  <c:v>83.428571428571402</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55157.142857142797</c:v>
+                  <c:v>99.428571428571402</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>53342.857142857101</c:v>
+                  <c:v>93.714285714285694</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>55757.142857142797</c:v>
+                  <c:v>95.428571428571402</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>56071.4285714285</c:v>
+                  <c:v>101.571428571428</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>49314.285714285703</c:v>
+                  <c:v>108.28571428571399</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>53728.571428571398</c:v>
+                  <c:v>110.714285714285</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>51200</c:v>
+                  <c:v>93.285714285714207</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>53285.714285714203</c:v>
+                  <c:v>107.28571428571399</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>53657.142857142797</c:v>
+                  <c:v>103.85714285714199</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>55385.714285714203</c:v>
+                  <c:v>112.142857142857</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>48085.714285714203</c:v>
+                  <c:v>89.571428571428498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51057.142857142797</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>52985.714285714203</c:v>
+                  <c:v>97.428571428571402</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>53642.857142857101</c:v>
+                  <c:v>103.28571428571399</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50300</c:v>
+                  <c:v>127.85714285714199</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>51357.142857142797</c:v>
+                  <c:v>110.571428571428</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>51900</c:v>
+                  <c:v>82.285714285714207</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>59728.571428571398</c:v>
+                  <c:v>100.28571428571399</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>52328.571428571398</c:v>
+                  <c:v>115.428571428571</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>52371.4285714285</c:v>
+                  <c:v>83.428571428571402</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>54042.857142857101</c:v>
+                  <c:v>85.428571428571402</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>56985.714285714203</c:v>
+                  <c:v>95.285714285714207</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>55771.4285714285</c:v>
+                  <c:v>103.571428571428</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>53757.142857142797</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>50828.571428571398</c:v>
+                  <c:v>98.714285714285694</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>56942.857142857101</c:v>
+                  <c:v>112.85714285714199</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>47400</c:v>
+                  <c:v>101.85714285714199</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>49942.857142857101</c:v>
+                  <c:v>95.714285714285694</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>54328.571428571398</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>52885.714285714203</c:v>
+                  <c:v>108.142857142857</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>55400</c:v>
+                  <c:v>100.428571428571</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>53542.857142857101</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>52014.285714285703</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>57057.142857142797</c:v>
+                  <c:v>83.571428571428498</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>55314.285714285703</c:v>
+                  <c:v>112.142857142857</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>52171.4285714285</c:v>
+                  <c:v>88.571428571428498</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>58842.857142857101</c:v>
+                  <c:v>95.571428571428498</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>58600</c:v>
+                  <c:v>112.142857142857</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>57357.142857142797</c:v>
+                  <c:v>106.714285714285</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>57028.571428571398</c:v>
+                  <c:v>96.571428571428498</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>55714.285714285703</c:v>
+                  <c:v>130.71428571428501</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>52628.571428571398</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>52728.571428571398</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>49471.4285714285</c:v>
+                  <c:v>88.142857142857096</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>52528.571428571398</c:v>
+                  <c:v>103.28571428571399</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>50028.571428571398</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>56042.857142857101</c:v>
+                  <c:v>102.142857142857</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>52228.571428571398</c:v>
+                  <c:v>116.428571428571</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>50185.714285714203</c:v>
+                  <c:v>102.85714285714199</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>51014.285714285703</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>57457.142857142797</c:v>
+                  <c:v>117.714285714285</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>51628.571428571398</c:v>
+                  <c:v>95.285714285714207</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>58257.142857142797</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>52642.857142857101</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>49114.285714285703</c:v>
+                  <c:v>80.285714285714207</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>58642.857142857101</c:v>
+                  <c:v>115.28571428571399</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>55228.571428571398</c:v>
+                  <c:v>101.28571428571399</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>56942.857142857101</c:v>
+                  <c:v>97.142857142857096</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>54500</c:v>
+                  <c:v>84.285714285714207</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>52371.4285714285</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>51957.142857142797</c:v>
+                  <c:v>116.428571428571</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>53900</c:v>
+                  <c:v>120.714285714285</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>60171.4285714285</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>52000</c:v>
+                  <c:v>114.571428571428</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>48842.857142857101</c:v>
+                  <c:v>101.142857142857</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>56771.4285714285</c:v>
+                  <c:v>112.142857142857</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>54457.142857142797</c:v>
+                  <c:v>96.857142857142804</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>56057.142857142797</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>57342.857142857101</c:v>
+                  <c:v>108.142857142857</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>52728.571428571398</c:v>
+                  <c:v>100.28571428571399</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>56414.285714285703</c:v>
+                  <c:v>99.571428571428498</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>52800</c:v>
+                  <c:v>124.142857142857</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>56557.142857142797</c:v>
+                  <c:v>96.428571428571402</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>58414.285714285703</c:v>
+                  <c:v>102.571428571428</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>55014.285714285703</c:v>
+                  <c:v>120.85714285714199</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>53542.857142857101</c:v>
+                  <c:v>102.571428571428</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>53114.285714285703</c:v>
+                  <c:v>99.714285714285694</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>55700</c:v>
+                  <c:v>72.571428571428498</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>57042.857142857101</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>54742.857142857101</c:v>
+                  <c:v>76.714285714285694</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>52942.857142857101</c:v>
+                  <c:v>103.571428571428</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>52300</c:v>
+                  <c:v>123.571428571428</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>52714.285714285703</c:v>
+                  <c:v>89.142857142857096</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>52657.142857142797</c:v>
+                  <c:v>102.142857142857</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>55714.285714285703</c:v>
+                  <c:v>91.714285714285694</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>56785.714285714203</c:v>
+                  <c:v>98.428571428571402</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>49714.285714285703</c:v>
+                  <c:v>110.428571428571</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>62771.4285714285</c:v>
+                  <c:v>104.28571428571399</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>57900</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>58957.142857142797</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -825,7 +852,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Greedy</c:v>
+                  <c:v>DD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1158,304 +1185,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>58228.571428571398</c:v>
+                  <c:v>109.571428571428</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55642.857142857101</c:v>
+                  <c:v>117.142857142857</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47657.142857142797</c:v>
+                  <c:v>85.714285714285694</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47500</c:v>
+                  <c:v>108.85714285714199</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48928.571428571398</c:v>
+                  <c:v>87.142857142857096</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49514.285714285703</c:v>
+                  <c:v>84.857142857142804</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50914.285714285703</c:v>
+                  <c:v>87.857142857142804</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45600</c:v>
+                  <c:v>84.714285714285694</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>53628.571428571398</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50300</c:v>
+                  <c:v>84.571428571428498</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>51114.285714285703</c:v>
+                  <c:v>113.85714285714199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>57942.857142857101</c:v>
+                  <c:v>119.142857142857</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51085.714285714203</c:v>
+                  <c:v>105.28571428571399</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>52100</c:v>
+                  <c:v>110.428571428571</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>54857.142857142797</c:v>
+                  <c:v>87.857142857142804</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>46642.857142857101</c:v>
+                  <c:v>88.285714285714207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>54485.714285714203</c:v>
+                  <c:v>106.142857142857</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>52071.4285714285</c:v>
+                  <c:v>107.428571428571</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>53614.285714285703</c:v>
+                  <c:v>101.85714285714199</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50514.285714285703</c:v>
+                  <c:v>78.857142857142804</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>51700</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>47628.571428571398</c:v>
+                  <c:v>95.714285714285694</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>51700</c:v>
+                  <c:v>106.142857142857</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45300</c:v>
+                  <c:v>87.142857142857096</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>52742.857142857101</c:v>
+                  <c:v>108.28571428571399</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>50814.285714285703</c:v>
+                  <c:v>112.571428571428</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>46442.857142857101</c:v>
+                  <c:v>80.142857142857096</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>52671.4285714285</c:v>
+                  <c:v>97.428571428571402</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>46900</c:v>
+                  <c:v>109.428571428571</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>50928.571428571398</c:v>
+                  <c:v>94.857142857142804</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>52157.142857142797</c:v>
+                  <c:v>87.714285714285694</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44085.714285714203</c:v>
+                  <c:v>95.571428571428498</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>50714.285714285703</c:v>
+                  <c:v>87.857142857142804</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>55271.4285714285</c:v>
+                  <c:v>112.571428571428</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>48671.4285714285</c:v>
+                  <c:v>114.571428571428</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>46428.571428571398</c:v>
+                  <c:v>104.714285714285</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>50914.285714285703</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>48528.571428571398</c:v>
+                  <c:v>96.714285714285694</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>50528.571428571398</c:v>
+                  <c:v>69.142857142857096</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>53400</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>45642.857142857101</c:v>
+                  <c:v>125.28571428571399</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>51485.714285714203</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>51171.4285714285</c:v>
+                  <c:v>102.428571428571</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>53014.285714285703</c:v>
+                  <c:v>89.142857142857096</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>49585.714285714203</c:v>
+                  <c:v>79.857142857142804</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>50771.4285714285</c:v>
+                  <c:v>101.85714285714199</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>48885.714285714203</c:v>
+                  <c:v>91.285714285714207</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>55200</c:v>
+                  <c:v>90.857142857142804</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>47785.714285714203</c:v>
+                  <c:v>82.857142857142804</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>51228.571428571398</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>47042.857142857101</c:v>
+                  <c:v>85.428571428571402</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>50571.4285714285</c:v>
+                  <c:v>89.428571428571402</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>54357.142857142797</c:v>
+                  <c:v>94.571428571428498</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>49485.714285714203</c:v>
+                  <c:v>95.142857142857096</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>50585.714285714203</c:v>
+                  <c:v>88.857142857142804</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>45800</c:v>
+                  <c:v>97.142857142857096</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>48328.571428571398</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>40814.285714285703</c:v>
+                  <c:v>90.285714285714207</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>52042.857142857101</c:v>
+                  <c:v>105.428571428571</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>49785.714285714203</c:v>
+                  <c:v>112.85714285714199</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>56671.4285714285</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>52128.571428571398</c:v>
+                  <c:v>103.714285714285</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>50500</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>52571.4285714285</c:v>
+                  <c:v>113.85714285714199</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>52614.285714285703</c:v>
+                  <c:v>93.857142857142804</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>54042.857142857101</c:v>
+                  <c:v>96.142857142857096</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>50814.285714285703</c:v>
+                  <c:v>91.285714285714207</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>51442.857142857101</c:v>
+                  <c:v>79.285714285714207</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>49100</c:v>
+                  <c:v>102.428571428571</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>48785.714285714203</c:v>
+                  <c:v>84.142857142857096</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>51057.142857142797</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>50085.714285714203</c:v>
+                  <c:v>108.714285714285</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>46214.285714285703</c:v>
+                  <c:v>88.428571428571402</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>46828.571428571398</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>46285.714285714203</c:v>
+                  <c:v>115.571428571428</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>49742.857142857101</c:v>
+                  <c:v>109.85714285714199</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>50428.571428571398</c:v>
+                  <c:v>98.714285714285694</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>53442.857142857101</c:v>
+                  <c:v>112.571428571428</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>43014.285714285703</c:v>
+                  <c:v>101.142857142857</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>52428.571428571398</c:v>
+                  <c:v>97.714285714285694</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>44357.142857142797</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>51071.4285714285</c:v>
+                  <c:v>104.85714285714199</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>51528.571428571398</c:v>
+                  <c:v>107.28571428571399</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>45942.857142857101</c:v>
+                  <c:v>91.857142857142804</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>49942.857142857101</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>47071.4285714285</c:v>
+                  <c:v>76.142857142857096</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>42714.285714285703</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>50300</c:v>
+                  <c:v>109.428571428571</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>48585.714285714203</c:v>
+                  <c:v>78.285714285714207</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>43700</c:v>
+                  <c:v>103.142857142857</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>48842.857142857101</c:v>
+                  <c:v>86.428571428571402</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>51971.4285714285</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>49242.857142857101</c:v>
+                  <c:v>98.142857142857096</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>46785.714285714203</c:v>
+                  <c:v>93.571428571428498</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>44228.571428571398</c:v>
+                  <c:v>107.28571428571399</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>50000</c:v>
+                  <c:v>93.571428571428498</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>52185.714285714203</c:v>
+                  <c:v>106.28571428571399</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>46200</c:v>
+                  <c:v>96.857142857142804</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>46300</c:v>
+                  <c:v>99.714285714285694</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>53628.571428571398</c:v>
+                  <c:v>114.571428571428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1475,9 +1502,6 @@
               <c:f>data!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Random</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1808,306 +1832,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>50157.142857142797</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>52371.4285714285</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47371.4285714285</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>49385.714285714203</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>47785.714285714203</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>51885.714285714203</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>48000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>53728.571428571398</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>47171.4285714285</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44985.714285714203</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>49785.714285714203</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>51628.571428571398</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>50242.857142857101</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>52471.4285714285</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>46585.714285714203</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>53985.714285714203</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>53357.142857142797</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>52728.571428571398</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>52528.571428571398</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>55157.142857142797</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>51471.4285714285</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>50585.714285714203</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>56200</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42985.714285714203</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>52371.4285714285</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>50828.571428571398</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>56842.857142857101</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>47357.142857142797</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>51300</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>58585.714285714203</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>55400</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>52471.4285714285</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>49057.142857142797</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>48971.4285714285</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>43957.142857142797</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>49971.4285714285</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>47857.142857142797</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>51900</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>52971.4285714285</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>49471.4285714285</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>47371.4285714285</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>55557.142857142797</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>52142.857142857101</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>51257.142857142797</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>47028.571428571398</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>56342.857142857101</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>53400</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>50114.285714285703</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>51842.857142857101</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50857.142857142797</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44557.142857142797</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51657.142857142797</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>48071.4285714285</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>55728.571428571398</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>46371.4285714285</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>48957.142857142797</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>47000</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>49271.4285714285</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>49485.714285714203</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>40814.285714285703</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>48885.714285714203</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>50171.4285714285</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>52171.4285714285</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>44785.714285714203</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>50628.571428571398</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>45985.714285714203</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>56600</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>49557.142857142797</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>45542.857142857101</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>51314.285714285703</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>42971.4285714285</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>48614.285714285703</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>56371.4285714285</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>44228.571428571398</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>51257.142857142797</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>52871.4285714285</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>48671.4285714285</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>52642.857142857101</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>48300</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>48571.4285714285</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>46514.285714285703</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>51914.285714285703</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>51885.714285714203</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>44900</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>50714.285714285703</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>46114.285714285703</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>50957.142857142797</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>48428.571428571398</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>49057.142857142797</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>45257.142857142797</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>47857.142857142797</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>49485.714285714203</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>54214.285714285703</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>53285.714285714203</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>44514.285714285703</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>50885.714285714203</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>49600</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>53442.857142857101</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>51585.714285714203</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>59871.4285714285</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2320,88 +2044,25 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="103"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="3"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>司机收入</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>-</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>运行天数</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>cdf!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2411,99 +2072,653 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:tint val="77000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>cdf!$B$2:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>72.571428571428498</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>76.714285714285694</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>80.285714285714207</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>82.285714285714207</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>82.714285714285694</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>83.428571428571402</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80</c:v>
+                  <c:v>83.428571428571402</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>83.571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84.285714285714207</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>85.428571428571402</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>88.142857142857096</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>88.571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>89.142857142857096</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>89.571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="20">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>91.142857142857096</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>91.714285714285694</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>92.142857142857096</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>93.285714285714207</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>93.714285714285694</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>94.142857142857096</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>95.285714285714207</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>95.285714285714207</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>95.428571428571402</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>95.571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>95.714285714285694</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>96.428571428571402</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>96.571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>96.857142857142804</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>97.142857142857096</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>97.428571428571402</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>98.428571428571402</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>98.714285714285694</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>99.428571428571402</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>99.571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>99.714285714285694</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>100.28571428571399</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>100.28571428571399</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>100.428571428571</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>101.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>101.28571428571399</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>101.571428571428</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>101.85714285714199</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>102.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>102.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>102.571428571428</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>102.571428571428</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>102.85714285714199</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>103.28571428571399</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>103.28571428571399</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>103.571428571428</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>103.571428571428</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>103.85714285714199</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>104.28571428571399</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>104.28571428571399</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>104.428571428571</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>106.714285714285</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>107.28571428571399</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>108.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>108.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>108.28571428571399</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>110.428571428571</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>110.571428571428</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>110.714285714285</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>112.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>112.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>112.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>112.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>112.85714285714199</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>114.571428571428</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>115.28571428571399</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>115.428571428571</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>116.428571428571</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>116.428571428571</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>117.714285714285</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>120.714285714285</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>120.85714285714199</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>123.571428571428</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>124.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>127.85714285714199</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>128.42857142857099</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>130.71428571428501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>cdf!$D$2:$D$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>53328.571428571398</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53509.285714285681</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53131.428571428514</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53170.714285714224</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53683.142857142819</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53445.476190476162</c:v>
+                  <c:v>6.0000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53621.632653061199</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53721.785714285696</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>53900.952380952353</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54035.428571428536</c:v>
+                  <c:v>9.9999999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.10999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.20000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.29000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.40000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.44000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.49000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.50000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.51000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.52000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.54000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.55000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.56000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.57000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.58000000000000029</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.5900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.60000000000000031</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.61000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.62000000000000033</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.63000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.64000000000000035</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.65000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.66000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.67000000000000037</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.68000000000000038</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.69000000000000039</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.7000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.71000000000000041</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.72000000000000042</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.73000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.74000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.75000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.76000000000000045</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.77000000000000046</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.78000000000000047</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.79000000000000048</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.80000000000000049</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.82000000000000051</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.83000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.84000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.85000000000000053</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.86000000000000054</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.87000000000000055</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.88000000000000056</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.89000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.90000000000000058</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.91000000000000059</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.9200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.9300000000000006</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.94000000000000061</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.95000000000000062</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.96000000000000063</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.97000000000000064</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.98000000000000065</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99000000000000066</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.0000000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F8E6-4B58-8807-93CF63015A1C}"/>
+              <c16:uniqueId val="{00000000-F7C1-4E4F-BDC8-E3F1D22BD604}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2512,220 +2727,663 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>cdf!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Greedy</c:v>
+                  <c:v>Edge-DQN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="76000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>cdf!$C$2:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>69.142857142857096</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>76.142857142857096</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>78.285714285714207</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>78.857142857142804</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>79.285714285714207</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>79.857142857142804</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80</c:v>
+                  <c:v>80.142857142857096</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90</c:v>
+                  <c:v>82.857142857142804</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>84.142857142857096</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84.571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>84.714285714285694</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>84.857142857142804</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85.428571428571402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>85.714285714285694</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>86.428571428571402</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>87.142857142857096</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>87.142857142857096</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>87.714285714285694</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>87.857142857142804</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>87.857142857142804</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>87.857142857142804</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>88.285714285714207</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>88.428571428571402</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>88.857142857142804</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>89.142857142857096</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>89.428571428571402</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>90.285714285714207</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>90.857142857142804</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>91.285714285714207</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>91.285714285714207</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>91.857142857142804</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>93.571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>93.571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>93.857142857142804</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>94.571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>94.857142857142804</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>95.142857142857096</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>95.571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>95.714285714285694</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>96.142857142857096</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>96.714285714285694</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>96.857142857142804</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>97.142857142857096</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>97.428571428571402</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>97.714285714285694</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>98.142857142857096</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>98.714285714285694</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>99.714285714285694</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>101.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>101.85714285714199</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>101.85714285714199</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>102.428571428571</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>102.428571428571</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>103.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>103.714285714285</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>104.714285714285</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>104.85714285714199</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>105.28571428571399</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>105.428571428571</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>106.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>106.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>106.28571428571399</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>107.28571428571399</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>107.28571428571399</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>107.428571428571</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>108.28571428571399</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>108.714285714285</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>108.85714285714199</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>109.428571428571</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>109.428571428571</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>109.571428571428</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>109.85714285714199</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>110.428571428571</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>112.571428571428</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>112.571428571428</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>112.571428571428</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>112.85714285714199</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>113.85714285714199</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>113.85714285714199</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>114.571428571428</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>114.571428571428</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>115.571428571428</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>117.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>119.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>125.28571428571399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:f>cdf!$D$2:$D$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>50791.428571428551</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51617.142857142826</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50972.380952380918</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50746.785714285666</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50692.857142857101</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50390.952380952338</c:v>
+                  <c:v>6.0000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50601.836734693847</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50395.714285714261</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50076.349206349179</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49962.57142857142</c:v>
+                  <c:v>9.9999999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.10999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.20000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.29000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.40000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.44000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.49000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.50000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.51000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.52000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.54000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.55000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.56000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.57000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.58000000000000029</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.5900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.60000000000000031</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.61000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.62000000000000033</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.63000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.64000000000000035</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.65000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.66000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.67000000000000037</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.68000000000000038</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.69000000000000039</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.7000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.71000000000000041</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.72000000000000042</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.73000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.74000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.75000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.76000000000000045</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.77000000000000046</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.78000000000000047</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.79000000000000048</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.80000000000000049</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.82000000000000051</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.83000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.84000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.85000000000000053</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.86000000000000054</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.87000000000000055</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.88000000000000056</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.89000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.90000000000000058</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.91000000000000059</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.9200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.9300000000000006</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.94000000000000061</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.95000000000000062</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.96000000000000063</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.97000000000000064</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.98000000000000065</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99000000000000066</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.0000000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F8E6-4B58-8807-93CF63015A1C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Random</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>49284.285714285652</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50565.714285714217</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50994.761904761828</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50796.78571428563</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50955.714285714217</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50494.999999999935</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50362.040816326473</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50248.035714285666</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50062.063492063455</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50203.285714285681</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F8E6-4B58-8807-93CF63015A1C}"/>
+              <c16:uniqueId val="{00000002-F7C1-4E4F-BDC8-E3F1D22BD604}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2737,17 +3395,86 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="62867071"/>
-        <c:axId val="71480399"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="62867071"/>
+        <c:axId val="1997440047"/>
+        <c:axId val="1877519823"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1997440047"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seeking Time(mins)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2757,8 +3484,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2777,23 +3504,20 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71480399"/>
+        <c:crossAx val="1877519823"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="71480399"/>
+        <c:axId val="1877519823"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2819,8 +3543,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2836,17 +3566,17 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62867071"/>
+        <c:crossAx val="1997440047"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2857,7 +3587,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2878,9 +3608,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="zh-CN"/>
@@ -2911,7 +3641,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
@@ -2938,79 +3671,11 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN"/>
-              <a:t>司机</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>空车时间</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>-</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>日期</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3021,7 +3686,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DQN</c:v>
+                  <c:v>Edge-DQN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3036,49 +3701,36 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet2!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>Mon</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>Tues</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>Wed</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>Thur</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>Fri</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>Sat</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Sun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3087,30 +3739,29 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>43.25</c:v>
+                  <c:v>41.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.8</c:v>
+                  <c:v>40.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>220.35</c:v>
+                  <c:v>203.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>179.55</c:v>
+                  <c:v>139.94999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>145.30000000000001</c:v>
+                  <c:v>124.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.5</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.45</c:v>
+                  <c:v>56.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8A86-4020-957B-625E177FE7C3}"/>
@@ -3126,7 +3777,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>D-DQN</c:v>
+                  <c:v>DQN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3141,49 +3792,36 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet2!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>Mon</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>Tues</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>Wed</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>Thur</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>Fri</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>Sat</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Sun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3192,30 +3830,29 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>41.2</c:v>
+                  <c:v>43.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.35</c:v>
+                  <c:v>45.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>203.1</c:v>
+                  <c:v>220.35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>139.94999999999999</c:v>
+                  <c:v>179.55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>124.6</c:v>
+                  <c:v>145.30000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41</c:v>
+                  <c:v>41.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56.55</c:v>
+                  <c:v>50.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8A86-4020-957B-625E177FE7C3}"/>
@@ -3230,11 +3867,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
         <c:axId val="713456239"/>
         <c:axId val="71492879"/>
-      </c:lineChart>
+      </c:radarChart>
       <c:catAx>
         <c:axId val="713456239"/>
         <c:scaling>
@@ -3242,6 +3877,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3359,7 +4008,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3449,33 +4098,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="713456239"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -3604,42 +4226,8 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -4200,7 +4788,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4227,8 +4815,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4308,11 +4896,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4323,11 +4906,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4339,7 +4917,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4359,9 +4937,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4374,10 +4949,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4417,22 +4992,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4537,8 +5113,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4670,19 +5246,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4696,6 +5273,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5263,23 +5851,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>109537</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>566737</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
+        <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3E8F6F6-50D0-4B77-86D5-C9E9BEB7D9D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B71D81A-C77F-450C-B198-98477724A4B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5607,7 +6195,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D101"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5615,1418 +6203,1115 @@
     <col min="1" max="4" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>53657.142857142797</v>
+        <v>104.28571428571399</v>
       </c>
       <c r="C2" s="1">
-        <v>58228.571428571398</v>
-      </c>
-      <c r="D2" s="1">
-        <v>50157.142857142797</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>109.571428571428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>54500</v>
+        <v>94.142857142857096</v>
       </c>
       <c r="C3" s="1">
-        <v>55642.857142857101</v>
-      </c>
-      <c r="D3" s="1">
-        <v>52371.4285714285</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>117.142857142857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>47657.142857142797</v>
+        <v>82.714285714285694</v>
       </c>
       <c r="C4" s="1">
-        <v>47657.142857142797</v>
-      </c>
-      <c r="D4" s="1">
-        <v>47371.4285714285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>85.714285714285694</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>48285.714285714203</v>
+        <v>128.42857142857099</v>
       </c>
       <c r="C5" s="1">
-        <v>47500</v>
-      </c>
-      <c r="D5" s="1">
-        <v>49385.714285714203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>108.85714285714199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>51814.285714285703</v>
+        <v>104.428571428571</v>
       </c>
       <c r="C6" s="1">
-        <v>48928.571428571398</v>
-      </c>
-      <c r="D6" s="1">
-        <v>47785.714285714203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>87.142857142857096</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>59528.571428571398</v>
+        <v>80</v>
       </c>
       <c r="C7" s="1">
-        <v>49514.285714285703</v>
-      </c>
-      <c r="D7" s="1">
-        <v>51885.714285714203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>84.857142857142804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>56628.571428571398</v>
+        <v>91.142857142857096</v>
       </c>
       <c r="C8" s="1">
-        <v>50914.285714285703</v>
-      </c>
-      <c r="D8" s="1">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>87.857142857142804</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>55300</v>
+        <v>90</v>
       </c>
       <c r="C9" s="1">
-        <v>45600</v>
-      </c>
-      <c r="D9" s="1">
-        <v>53728.571428571398</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>84.714285714285694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>51028.571428571398</v>
+        <v>92.142857142857096</v>
       </c>
       <c r="C10" s="1">
-        <v>53628.571428571398</v>
-      </c>
-      <c r="D10" s="1">
-        <v>47171.4285714285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>54885.714285714203</v>
+        <v>83.428571428571402</v>
       </c>
       <c r="C11" s="1">
-        <v>50300</v>
-      </c>
-      <c r="D11" s="1">
-        <v>44985.714285714203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>84.571428571428498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>55157.142857142797</v>
+        <v>99.428571428571402</v>
       </c>
       <c r="C12" s="1">
-        <v>51114.285714285703</v>
-      </c>
-      <c r="D12" s="1">
-        <v>49785.714285714203</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>113.85714285714199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>53342.857142857101</v>
+        <v>93.714285714285694</v>
       </c>
       <c r="C13" s="1">
-        <v>57942.857142857101</v>
-      </c>
-      <c r="D13" s="1">
-        <v>51628.571428571398</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>119.142857142857</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>55757.142857142797</v>
+        <v>95.428571428571402</v>
       </c>
       <c r="C14" s="1">
-        <v>51085.714285714203</v>
-      </c>
-      <c r="D14" s="1">
-        <v>50242.857142857101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>105.28571428571399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>56071.4285714285</v>
+        <v>101.571428571428</v>
       </c>
       <c r="C15" s="1">
-        <v>52100</v>
-      </c>
-      <c r="D15" s="1">
-        <v>52471.4285714285</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>110.428571428571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>49314.285714285703</v>
+        <v>108.28571428571399</v>
       </c>
       <c r="C16" s="1">
-        <v>54857.142857142797</v>
-      </c>
-      <c r="D16" s="1">
-        <v>46585.714285714203</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>87.857142857142804</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>53728.571428571398</v>
+        <v>110.714285714285</v>
       </c>
       <c r="C17" s="1">
-        <v>46642.857142857101</v>
-      </c>
-      <c r="D17" s="1">
-        <v>53985.714285714203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>88.285714285714207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>51200</v>
+        <v>93.285714285714207</v>
       </c>
       <c r="C18" s="1">
-        <v>54485.714285714203</v>
-      </c>
-      <c r="D18" s="1">
-        <v>53357.142857142797</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>106.142857142857</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>53285.714285714203</v>
+        <v>107.28571428571399</v>
       </c>
       <c r="C19" s="1">
-        <v>52071.4285714285</v>
-      </c>
-      <c r="D19" s="1">
-        <v>52728.571428571398</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>107.428571428571</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>53657.142857142797</v>
+        <v>103.85714285714199</v>
       </c>
       <c r="C20" s="1">
-        <v>53614.285714285703</v>
-      </c>
-      <c r="D20" s="1">
-        <v>52528.571428571398</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>101.85714285714199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>55385.714285714203</v>
+        <v>112.142857142857</v>
       </c>
       <c r="C21" s="1">
-        <v>50514.285714285703</v>
-      </c>
-      <c r="D21" s="1">
-        <v>55157.142857142797</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>78.857142857142804</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>48085.714285714203</v>
+        <v>89.571428571428498</v>
       </c>
       <c r="C22" s="1">
-        <v>51700</v>
-      </c>
-      <c r="D22" s="1">
-        <v>51471.4285714285</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>51057.142857142797</v>
+        <v>106</v>
       </c>
       <c r="C23" s="1">
-        <v>47628.571428571398</v>
-      </c>
-      <c r="D23" s="1">
-        <v>50585.714285714203</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>95.714285714285694</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>52985.714285714203</v>
+        <v>97.428571428571402</v>
       </c>
       <c r="C24" s="1">
-        <v>51700</v>
-      </c>
-      <c r="D24" s="1">
-        <v>56200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>106.142857142857</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>53642.857142857101</v>
+        <v>103.28571428571399</v>
       </c>
       <c r="C25" s="1">
-        <v>45300</v>
-      </c>
-      <c r="D25" s="1">
-        <v>42985.714285714203</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>87.142857142857096</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>50300</v>
+        <v>127.85714285714199</v>
       </c>
       <c r="C26" s="1">
-        <v>52742.857142857101</v>
-      </c>
-      <c r="D26" s="1">
-        <v>52371.4285714285</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>108.28571428571399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>51357.142857142797</v>
+        <v>110.571428571428</v>
       </c>
       <c r="C27" s="1">
-        <v>50814.285714285703</v>
-      </c>
-      <c r="D27" s="1">
-        <v>50828.571428571398</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>112.571428571428</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>51900</v>
+        <v>82.285714285714207</v>
       </c>
       <c r="C28" s="1">
-        <v>46442.857142857101</v>
-      </c>
-      <c r="D28" s="1">
-        <v>56842.857142857101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>80.142857142857096</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>59728.571428571398</v>
+        <v>100.28571428571399</v>
       </c>
       <c r="C29" s="1">
-        <v>52671.4285714285</v>
-      </c>
-      <c r="D29" s="1">
-        <v>47357.142857142797</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>97.428571428571402</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>52328.571428571398</v>
+        <v>115.428571428571</v>
       </c>
       <c r="C30" s="1">
-        <v>46900</v>
-      </c>
-      <c r="D30" s="1">
-        <v>51300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>109.428571428571</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>52371.4285714285</v>
+        <v>83.428571428571402</v>
       </c>
       <c r="C31" s="1">
-        <v>50928.571428571398</v>
-      </c>
-      <c r="D31" s="1">
-        <v>58585.714285714203</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>94.857142857142804</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>54042.857142857101</v>
+        <v>85.428571428571402</v>
       </c>
       <c r="C32" s="1">
-        <v>52157.142857142797</v>
-      </c>
-      <c r="D32" s="1">
-        <v>55400</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>87.714285714285694</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>56985.714285714203</v>
+        <v>95.285714285714207</v>
       </c>
       <c r="C33" s="1">
-        <v>44085.714285714203</v>
-      </c>
-      <c r="D33" s="1">
-        <v>52471.4285714285</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>95.571428571428498</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>55771.4285714285</v>
+        <v>103.571428571428</v>
       </c>
       <c r="C34" s="1">
-        <v>50714.285714285703</v>
-      </c>
-      <c r="D34" s="1">
-        <v>49057.142857142797</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>87.857142857142804</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>53757.142857142797</v>
+        <v>87</v>
       </c>
       <c r="C35" s="1">
-        <v>55271.4285714285</v>
-      </c>
-      <c r="D35" s="1">
-        <v>48971.4285714285</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>112.571428571428</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>50828.571428571398</v>
+        <v>98.714285714285694</v>
       </c>
       <c r="C36" s="1">
-        <v>48671.4285714285</v>
-      </c>
-      <c r="D36" s="1">
-        <v>43957.142857142797</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>114.571428571428</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>56942.857142857101</v>
+        <v>112.85714285714199</v>
       </c>
       <c r="C37" s="1">
-        <v>46428.571428571398</v>
-      </c>
-      <c r="D37" s="1">
-        <v>49971.4285714285</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>104.714285714285</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>47400</v>
+        <v>101.85714285714199</v>
       </c>
       <c r="C38" s="1">
-        <v>50914.285714285703</v>
-      </c>
-      <c r="D38" s="1">
-        <v>47857.142857142797</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>49942.857142857101</v>
+        <v>95.714285714285694</v>
       </c>
       <c r="C39" s="1">
-        <v>48528.571428571398</v>
-      </c>
-      <c r="D39" s="1">
-        <v>51900</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>96.714285714285694</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>54328.571428571398</v>
+        <v>97</v>
       </c>
       <c r="C40" s="1">
-        <v>50528.571428571398</v>
-      </c>
-      <c r="D40" s="1">
-        <v>52971.4285714285</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>69.142857142857096</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>52885.714285714203</v>
+        <v>108.142857142857</v>
       </c>
       <c r="C41" s="1">
-        <v>53400</v>
-      </c>
-      <c r="D41" s="1">
-        <v>49471.4285714285</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>55400</v>
+        <v>100.428571428571</v>
       </c>
       <c r="C42" s="1">
-        <v>45642.857142857101</v>
-      </c>
-      <c r="D42" s="1">
-        <v>47371.4285714285</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>125.28571428571399</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>53542.857142857101</v>
+        <v>88</v>
       </c>
       <c r="C43" s="1">
-        <v>51485.714285714203</v>
-      </c>
-      <c r="D43" s="1">
-        <v>55557.142857142797</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>52014.285714285703</v>
+        <v>105</v>
       </c>
       <c r="C44" s="1">
-        <v>51171.4285714285</v>
-      </c>
-      <c r="D44" s="1">
-        <v>52142.857142857101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>102.428571428571</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>57057.142857142797</v>
+        <v>83.571428571428498</v>
       </c>
       <c r="C45" s="1">
-        <v>53014.285714285703</v>
-      </c>
-      <c r="D45" s="1">
-        <v>51257.142857142797</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>89.142857142857096</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>55314.285714285703</v>
+        <v>112.142857142857</v>
       </c>
       <c r="C46" s="1">
-        <v>49585.714285714203</v>
-      </c>
-      <c r="D46" s="1">
-        <v>47028.571428571398</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>79.857142857142804</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>52171.4285714285</v>
+        <v>88.571428571428498</v>
       </c>
       <c r="C47" s="1">
-        <v>50771.4285714285</v>
-      </c>
-      <c r="D47" s="1">
-        <v>56342.857142857101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <v>101.85714285714199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>58842.857142857101</v>
+        <v>95.571428571428498</v>
       </c>
       <c r="C48" s="1">
-        <v>48885.714285714203</v>
-      </c>
-      <c r="D48" s="1">
-        <v>53400</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91.285714285714207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>58600</v>
+        <v>112.142857142857</v>
       </c>
       <c r="C49" s="1">
-        <v>55200</v>
-      </c>
-      <c r="D49" s="1">
-        <v>50114.285714285703</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>90.857142857142804</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>57357.142857142797</v>
+        <v>106.714285714285</v>
       </c>
       <c r="C50" s="1">
-        <v>47785.714285714203</v>
-      </c>
-      <c r="D50" s="1">
-        <v>51842.857142857101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <v>82.857142857142804</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>57028.571428571398</v>
+        <v>96.571428571428498</v>
       </c>
       <c r="C51" s="1">
-        <v>51228.571428571398</v>
-      </c>
-      <c r="D51" s="1">
-        <v>50857.142857142797</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>55714.285714285703</v>
+        <v>130.71428571428501</v>
       </c>
       <c r="C52" s="1">
-        <v>47042.857142857101</v>
-      </c>
-      <c r="D52" s="1">
-        <v>44557.142857142797</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+        <v>85.428571428571402</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="1">
-        <v>52628.571428571398</v>
+        <v>100</v>
       </c>
       <c r="C53" s="1">
-        <v>50571.4285714285</v>
-      </c>
-      <c r="D53" s="1">
-        <v>51657.142857142797</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+        <v>89.428571428571402</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="1">
-        <v>52728.571428571398</v>
+        <v>116</v>
       </c>
       <c r="C54" s="1">
-        <v>54357.142857142797</v>
-      </c>
-      <c r="D54" s="1">
-        <v>48071.4285714285</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+        <v>94.571428571428498</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="1">
-        <v>49471.4285714285</v>
+        <v>88.142857142857096</v>
       </c>
       <c r="C55" s="1">
-        <v>49485.714285714203</v>
-      </c>
-      <c r="D55" s="1">
-        <v>55728.571428571398</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+        <v>95.142857142857096</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="1">
-        <v>52528.571428571398</v>
+        <v>103.28571428571399</v>
       </c>
       <c r="C56" s="1">
-        <v>50585.714285714203</v>
-      </c>
-      <c r="D56" s="1">
-        <v>46371.4285714285</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+        <v>88.857142857142804</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" s="1">
-        <v>50028.571428571398</v>
+        <v>84</v>
       </c>
       <c r="C57" s="1">
-        <v>45800</v>
-      </c>
-      <c r="D57" s="1">
-        <v>48957.142857142797</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+        <v>97.142857142857096</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" s="1">
-        <v>56042.857142857101</v>
+        <v>102.142857142857</v>
       </c>
       <c r="C58" s="1">
-        <v>48328.571428571398</v>
-      </c>
-      <c r="D58" s="1">
-        <v>47000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="1">
-        <v>52228.571428571398</v>
+        <v>116.428571428571</v>
       </c>
       <c r="C59" s="1">
-        <v>40814.285714285703</v>
-      </c>
-      <c r="D59" s="1">
-        <v>49271.4285714285</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+        <v>90.285714285714207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" s="1">
-        <v>50185.714285714203</v>
+        <v>102.85714285714199</v>
       </c>
       <c r="C60" s="1">
-        <v>52042.857142857101</v>
-      </c>
-      <c r="D60" s="1">
-        <v>49485.714285714203</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+        <v>105.428571428571</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="1">
-        <v>51014.285714285703</v>
+        <v>130</v>
       </c>
       <c r="C61" s="1">
-        <v>49785.714285714203</v>
-      </c>
-      <c r="D61" s="1">
-        <v>40814.285714285703</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+        <v>112.85714285714199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" s="1">
-        <v>57457.142857142797</v>
+        <v>117.714285714285</v>
       </c>
       <c r="C62" s="1">
-        <v>56671.4285714285</v>
-      </c>
-      <c r="D62" s="1">
-        <v>48885.714285714203</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" s="1">
-        <v>51628.571428571398</v>
+        <v>95.285714285714207</v>
       </c>
       <c r="C63" s="1">
-        <v>52128.571428571398</v>
-      </c>
-      <c r="D63" s="1">
-        <v>50171.4285714285</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+        <v>103.714285714285</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" s="1">
-        <v>58257.142857142797</v>
+        <v>95</v>
       </c>
       <c r="C64" s="1">
-        <v>50500</v>
-      </c>
-      <c r="D64" s="1">
-        <v>52171.4285714285</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" s="1">
-        <v>52642.857142857101</v>
+        <v>106</v>
       </c>
       <c r="C65" s="1">
-        <v>52571.4285714285</v>
-      </c>
-      <c r="D65" s="1">
-        <v>44785.714285714203</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+        <v>113.85714285714199</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" s="1">
-        <v>49114.285714285703</v>
+        <v>80.285714285714207</v>
       </c>
       <c r="C66" s="1">
-        <v>52614.285714285703</v>
-      </c>
-      <c r="D66" s="1">
-        <v>50628.571428571398</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>93.857142857142804</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" s="1">
-        <v>58642.857142857101</v>
+        <v>115.28571428571399</v>
       </c>
       <c r="C67" s="1">
-        <v>54042.857142857101</v>
-      </c>
-      <c r="D67" s="1">
-        <v>45985.714285714203</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+        <v>96.142857142857096</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" s="1">
-        <v>55228.571428571398</v>
+        <v>101.28571428571399</v>
       </c>
       <c r="C68" s="1">
-        <v>50814.285714285703</v>
-      </c>
-      <c r="D68" s="1">
-        <v>56600</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91.285714285714207</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" s="1">
-        <v>56942.857142857101</v>
+        <v>97.142857142857096</v>
       </c>
       <c r="C69" s="1">
-        <v>51442.857142857101</v>
-      </c>
-      <c r="D69" s="1">
-        <v>49557.142857142797</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+        <v>79.285714285714207</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" s="1">
-        <v>54500</v>
+        <v>84.285714285714207</v>
       </c>
       <c r="C70" s="1">
-        <v>49100</v>
-      </c>
-      <c r="D70" s="1">
-        <v>45542.857142857101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+        <v>102.428571428571</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" s="1">
-        <v>52371.4285714285</v>
+        <v>94</v>
       </c>
       <c r="C71" s="1">
-        <v>48785.714285714203</v>
-      </c>
-      <c r="D71" s="1">
-        <v>51314.285714285703</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+        <v>84.142857142857096</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" s="1">
-        <v>51957.142857142797</v>
+        <v>116.428571428571</v>
       </c>
       <c r="C72" s="1">
-        <v>51057.142857142797</v>
-      </c>
-      <c r="D72" s="1">
-        <v>42971.4285714285</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" s="1">
-        <v>53900</v>
+        <v>120.714285714285</v>
       </c>
       <c r="C73" s="1">
-        <v>50085.714285714203</v>
-      </c>
-      <c r="D73" s="1">
-        <v>48614.285714285703</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+        <v>108.714285714285</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" s="1">
-        <v>60171.4285714285</v>
+        <v>110</v>
       </c>
       <c r="C74" s="1">
-        <v>46214.285714285703</v>
-      </c>
-      <c r="D74" s="1">
-        <v>56371.4285714285</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+        <v>88.428571428571402</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" s="1">
-        <v>52000</v>
+        <v>114.571428571428</v>
       </c>
       <c r="C75" s="1">
-        <v>46828.571428571398</v>
-      </c>
-      <c r="D75" s="1">
-        <v>44228.571428571398</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" s="1">
-        <v>48842.857142857101</v>
+        <v>101.142857142857</v>
       </c>
       <c r="C76" s="1">
-        <v>46285.714285714203</v>
-      </c>
-      <c r="D76" s="1">
-        <v>51257.142857142797</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+        <v>115.571428571428</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" s="1">
-        <v>56771.4285714285</v>
+        <v>112.142857142857</v>
       </c>
       <c r="C77" s="1">
-        <v>49742.857142857101</v>
-      </c>
-      <c r="D77" s="1">
-        <v>52871.4285714285</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+        <v>109.85714285714199</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" s="1">
-        <v>54457.142857142797</v>
+        <v>96.857142857142804</v>
       </c>
       <c r="C78" s="1">
-        <v>50428.571428571398</v>
-      </c>
-      <c r="D78" s="1">
-        <v>48671.4285714285</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+        <v>98.714285714285694</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" s="1">
-        <v>56057.142857142797</v>
+        <v>107</v>
       </c>
       <c r="C79" s="1">
-        <v>53442.857142857101</v>
-      </c>
-      <c r="D79" s="1">
-        <v>52642.857142857101</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+        <v>112.571428571428</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" s="1">
-        <v>57342.857142857101</v>
+        <v>108.142857142857</v>
       </c>
       <c r="C80" s="1">
-        <v>43014.285714285703</v>
-      </c>
-      <c r="D80" s="1">
-        <v>48300</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+        <v>101.142857142857</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" s="1">
-        <v>52728.571428571398</v>
+        <v>100.28571428571399</v>
       </c>
       <c r="C81" s="1">
-        <v>52428.571428571398</v>
-      </c>
-      <c r="D81" s="1">
-        <v>48571.4285714285</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+        <v>97.714285714285694</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" s="1">
-        <v>56414.285714285703</v>
+        <v>99.571428571428498</v>
       </c>
       <c r="C82" s="1">
-        <v>44357.142857142797</v>
-      </c>
-      <c r="D82" s="1">
-        <v>46514.285714285703</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" s="1">
-        <v>52800</v>
+        <v>124.142857142857</v>
       </c>
       <c r="C83" s="1">
-        <v>51071.4285714285</v>
-      </c>
-      <c r="D83" s="1">
-        <v>51914.285714285703</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+        <v>104.85714285714199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" s="1">
-        <v>56557.142857142797</v>
+        <v>96.428571428571402</v>
       </c>
       <c r="C84" s="1">
-        <v>51528.571428571398</v>
-      </c>
-      <c r="D84" s="1">
-        <v>51885.714285714203</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+        <v>107.28571428571399</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" s="1">
-        <v>58414.285714285703</v>
+        <v>102.571428571428</v>
       </c>
       <c r="C85" s="1">
-        <v>45942.857142857101</v>
-      </c>
-      <c r="D85" s="1">
-        <v>44900</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91.857142857142804</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" s="1">
-        <v>55014.285714285703</v>
+        <v>120.85714285714199</v>
       </c>
       <c r="C86" s="1">
-        <v>49942.857142857101</v>
-      </c>
-      <c r="D86" s="1">
-        <v>50714.285714285703</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" s="1">
-        <v>53542.857142857101</v>
+        <v>102.571428571428</v>
       </c>
       <c r="C87" s="1">
-        <v>47071.4285714285</v>
-      </c>
-      <c r="D87" s="1">
-        <v>46114.285714285703</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+        <v>76.142857142857096</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" s="1">
-        <v>53114.285714285703</v>
+        <v>99.714285714285694</v>
       </c>
       <c r="C88" s="1">
-        <v>42714.285714285703</v>
-      </c>
-      <c r="D88" s="1">
-        <v>50957.142857142797</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" s="1">
-        <v>55700</v>
+        <v>72.571428571428498</v>
       </c>
       <c r="C89" s="1">
-        <v>50300</v>
-      </c>
-      <c r="D89" s="1">
-        <v>48428.571428571398</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+        <v>109.428571428571</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" s="1">
-        <v>57042.857142857101</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1">
-        <v>48585.714285714203</v>
-      </c>
-      <c r="D90" s="1">
-        <v>49057.142857142797</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+        <v>78.285714285714207</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" s="1">
-        <v>54742.857142857101</v>
+        <v>76.714285714285694</v>
       </c>
       <c r="C91" s="1">
-        <v>43700</v>
-      </c>
-      <c r="D91" s="1">
-        <v>45257.142857142797</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+        <v>103.142857142857</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" s="1">
-        <v>52942.857142857101</v>
+        <v>103.571428571428</v>
       </c>
       <c r="C92" s="1">
-        <v>48842.857142857101</v>
-      </c>
-      <c r="D92" s="1">
-        <v>47857.142857142797</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+        <v>86.428571428571402</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" s="1">
-        <v>52300</v>
+        <v>123.571428571428</v>
       </c>
       <c r="C93" s="1">
-        <v>51971.4285714285</v>
-      </c>
-      <c r="D93" s="1">
-        <v>49485.714285714203</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" s="1">
-        <v>52714.285714285703</v>
+        <v>89.142857142857096</v>
       </c>
       <c r="C94" s="1">
-        <v>49242.857142857101</v>
-      </c>
-      <c r="D94" s="1">
-        <v>54214.285714285703</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+        <v>98.142857142857096</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" s="1">
-        <v>52657.142857142797</v>
+        <v>102.142857142857</v>
       </c>
       <c r="C95" s="1">
-        <v>46785.714285714203</v>
-      </c>
-      <c r="D95" s="1">
-        <v>53285.714285714203</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+        <v>93.571428571428498</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" s="1">
-        <v>55714.285714285703</v>
+        <v>91.714285714285694</v>
       </c>
       <c r="C96" s="1">
-        <v>44228.571428571398</v>
-      </c>
-      <c r="D96" s="1">
-        <v>44514.285714285703</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+        <v>107.28571428571399</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" s="1">
-        <v>56785.714285714203</v>
+        <v>98.428571428571402</v>
       </c>
       <c r="C97" s="1">
-        <v>50000</v>
-      </c>
-      <c r="D97" s="1">
-        <v>50885.714285714203</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+        <v>93.571428571428498</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" s="1">
-        <v>49714.285714285703</v>
+        <v>110.428571428571</v>
       </c>
       <c r="C98" s="1">
-        <v>52185.714285714203</v>
-      </c>
-      <c r="D98" s="1">
-        <v>49600</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+        <v>106.28571428571399</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" s="1">
-        <v>62771.4285714285</v>
+        <v>104.28571428571399</v>
       </c>
       <c r="C99" s="1">
-        <v>46200</v>
-      </c>
-      <c r="D99" s="1">
-        <v>53442.857142857101</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+        <v>96.857142857142804</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" s="1">
-        <v>57900</v>
+        <v>106</v>
       </c>
       <c r="C100" s="1">
-        <v>46300</v>
-      </c>
-      <c r="D100" s="1">
-        <v>51585.714285714203</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+        <v>99.714285714285694</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" s="1">
-        <v>58957.142857142797</v>
+        <v>85</v>
       </c>
       <c r="C101" s="1">
-        <v>53628.571428571398</v>
-      </c>
-      <c r="D101" s="1">
-        <v>59871.4285714285</v>
+        <v>114.571428571428</v>
       </c>
     </row>
   </sheetData>
@@ -7060,13 +7345,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8DBDF7-BCAF-4CBB-88A3-0B6D4C5632DA}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="4" width="9" style="1"/>
+    <col min="6" max="7" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
@@ -7074,183 +7363,1246 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
-      <c r="B2">
-        <f>AVERAGE(data!B2:B11)</f>
-        <v>53328.571428571398</v>
-      </c>
-      <c r="C2">
-        <f>AVERAGE(data!C2:C11)</f>
-        <v>50791.428571428551</v>
-      </c>
-      <c r="D2">
-        <f>AVERAGE(data!D2:D11)</f>
-        <v>49284.285714285652</v>
+      <c r="B2" s="1">
+        <v>72.571428571428498</v>
+      </c>
+      <c r="C2" s="1">
+        <v>69.142857142857096</v>
+      </c>
+      <c r="D2" s="1">
+        <f>1/100</f>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20</v>
       </c>
-      <c r="B3">
-        <f>AVERAGE(data!B2:B21)</f>
-        <v>53509.285714285681</v>
-      </c>
-      <c r="C3">
-        <f>AVERAGE(data!C2:C21)</f>
-        <v>51617.142857142826</v>
-      </c>
-      <c r="D3">
-        <f>AVERAGE(data!D2:D21)</f>
-        <v>50565.714285714217</v>
+      <c r="B3" s="1">
+        <v>76.714285714285694</v>
+      </c>
+      <c r="C3" s="1">
+        <v>75</v>
+      </c>
+      <c r="D3" s="1">
+        <f>1/100+D2</f>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>30</v>
       </c>
-      <c r="B4">
-        <f>AVERAGE(data!B2:B31)</f>
-        <v>53131.428571428514</v>
-      </c>
-      <c r="C4">
-        <f>AVERAGE(data!C2:C31)</f>
-        <v>50972.380952380918</v>
-      </c>
-      <c r="D4">
-        <f>AVERAGE(data!D2:D31)</f>
-        <v>50994.761904761828</v>
+      <c r="B4" s="1">
+        <v>80</v>
+      </c>
+      <c r="C4" s="1">
+        <v>76.142857142857096</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D67" si="0">1/100+D3</f>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>40</v>
       </c>
-      <c r="B5">
-        <f>AVERAGE(data!B2:B41)</f>
-        <v>53170.714285714224</v>
-      </c>
-      <c r="C5">
-        <f>AVERAGE(data!C2:C41)</f>
-        <v>50746.785714285666</v>
-      </c>
-      <c r="D5">
-        <f>AVERAGE(data!D2:D41)</f>
-        <v>50796.78571428563</v>
+      <c r="B5" s="1">
+        <v>80.285714285714207</v>
+      </c>
+      <c r="C5" s="1">
+        <v>78.285714285714207</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>50</v>
       </c>
-      <c r="B6">
-        <f>AVERAGE(data!B2:B51)</f>
-        <v>53683.142857142819</v>
-      </c>
-      <c r="C6">
-        <f>AVERAGE(data!C2:C51)</f>
-        <v>50692.857142857101</v>
-      </c>
-      <c r="D6">
-        <f>AVERAGE(data!D2:D51)</f>
-        <v>50955.714285714217</v>
+      <c r="B6" s="1">
+        <v>82.285714285714207</v>
+      </c>
+      <c r="C6" s="1">
+        <v>78.857142857142804</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>60</v>
       </c>
-      <c r="B7">
-        <f>AVERAGE(data!B2:B61)</f>
-        <v>53445.476190476162</v>
-      </c>
-      <c r="C7">
-        <f>AVERAGE(data!C2:C61)</f>
-        <v>50390.952380952338</v>
-      </c>
-      <c r="D7">
-        <f>AVERAGE(data!D2:D61)</f>
-        <v>50494.999999999935</v>
+      <c r="B7" s="1">
+        <v>82.714285714285694</v>
+      </c>
+      <c r="C7" s="1">
+        <v>79.285714285714207</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000005E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>70</v>
       </c>
-      <c r="B8">
-        <f>AVERAGE(data!B2:B71)</f>
-        <v>53621.632653061199</v>
-      </c>
-      <c r="C8">
-        <f>AVERAGE(data!C2:C71)</f>
-        <v>50601.836734693847</v>
-      </c>
-      <c r="D8">
-        <f>AVERAGE(data!D2:D71)</f>
-        <v>50362.040816326473</v>
+      <c r="B8" s="1">
+        <v>83.428571428571402</v>
+      </c>
+      <c r="C8" s="1">
+        <v>79.857142857142804</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>80</v>
       </c>
-      <c r="B9">
-        <f>AVERAGE(data!B2:B81)</f>
-        <v>53721.785714285696</v>
-      </c>
-      <c r="C9">
-        <f>AVERAGE(data!C2:C81)</f>
-        <v>50395.714285714261</v>
-      </c>
-      <c r="D9">
-        <f>AVERAGE(data!D2:D81)</f>
-        <v>50248.035714285666</v>
+      <c r="B9" s="1">
+        <v>83.428571428571402</v>
+      </c>
+      <c r="C9" s="1">
+        <v>80.142857142857096</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>90</v>
       </c>
-      <c r="B10">
-        <f>AVERAGE(data!B2:B91)</f>
-        <v>53900.952380952353</v>
-      </c>
-      <c r="C10">
-        <f>AVERAGE(data!C2:C91)</f>
-        <v>50076.349206349179</v>
-      </c>
-      <c r="D10">
-        <f>AVERAGE(data!D2:D91)</f>
-        <v>50062.063492063455</v>
+      <c r="B10" s="1">
+        <v>83.571428571428498</v>
+      </c>
+      <c r="C10" s="1">
+        <v>82.857142857142804</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>100</v>
       </c>
-      <c r="B11">
-        <f>AVERAGE(data!B2:B101)</f>
-        <v>54035.428571428536</v>
-      </c>
-      <c r="C11">
-        <f>AVERAGE(data!C2:C101)</f>
-        <v>49962.57142857142</v>
-      </c>
-      <c r="D11">
-        <f>AVERAGE(data!D2:D101)</f>
-        <v>50203.285714285681</v>
+      <c r="B11" s="1">
+        <v>84</v>
+      </c>
+      <c r="C11" s="1">
+        <v>84.142857142857096</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>84.285714285714207</v>
+      </c>
+      <c r="C12" s="1">
+        <v>84.571428571428498</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10999999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>85</v>
+      </c>
+      <c r="C13" s="1">
+        <v>84.714285714285694</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11999999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>85.428571428571402</v>
+      </c>
+      <c r="C14" s="1">
+        <v>84.857142857142804</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12999999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>87</v>
+      </c>
+      <c r="C15" s="1">
+        <v>85.428571428571402</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13999999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>88</v>
+      </c>
+      <c r="C16" s="1">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>88.142857142857096</v>
+      </c>
+      <c r="C17" s="1">
+        <v>86.428571428571402</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>88.571428571428498</v>
+      </c>
+      <c r="C18" s="1">
+        <v>87.142857142857096</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>89.142857142857096</v>
+      </c>
+      <c r="C19" s="1">
+        <v>87.142857142857096</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.18000000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>89.571428571428498</v>
+      </c>
+      <c r="C20" s="1">
+        <v>87.714285714285694</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.19000000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>90</v>
+      </c>
+      <c r="C21" s="1">
+        <v>87.857142857142804</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>91</v>
+      </c>
+      <c r="C22" s="1">
+        <v>87.857142857142804</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.21000000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <v>91.142857142857096</v>
+      </c>
+      <c r="C23" s="1">
+        <v>87.857142857142804</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22000000000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
+        <v>91.714285714285694</v>
+      </c>
+      <c r="C24" s="1">
+        <v>88</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23000000000000007</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>92.142857142857096</v>
+      </c>
+      <c r="C25" s="1">
+        <v>88</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.24000000000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
+        <v>93.285714285714207</v>
+      </c>
+      <c r="C26" s="1">
+        <v>88.285714285714207</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25000000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <v>93.714285714285694</v>
+      </c>
+      <c r="C27" s="1">
+        <v>88.428571428571402</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.26000000000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="1">
+        <v>94</v>
+      </c>
+      <c r="C28" s="1">
+        <v>88.857142857142804</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>0.27000000000000007</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
+        <v>94.142857142857096</v>
+      </c>
+      <c r="C29" s="1">
+        <v>89.142857142857096</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000008</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
+        <v>95</v>
+      </c>
+      <c r="C30" s="1">
+        <v>89.428571428571402</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29000000000000009</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="1">
+        <v>95.285714285714207</v>
+      </c>
+      <c r="C31" s="1">
+        <v>90.285714285714207</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.3000000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="1">
+        <v>95.285714285714207</v>
+      </c>
+      <c r="C32" s="1">
+        <v>90.857142857142804</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.31000000000000011</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="1">
+        <v>95.428571428571402</v>
+      </c>
+      <c r="C33" s="1">
+        <v>91</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32000000000000012</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="1">
+        <v>95.571428571428498</v>
+      </c>
+      <c r="C34" s="1">
+        <v>91.285714285714207</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33000000000000013</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="1">
+        <v>95.714285714285694</v>
+      </c>
+      <c r="C35" s="1">
+        <v>91.285714285714207</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="0"/>
+        <v>0.34000000000000014</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="1">
+        <v>96.428571428571402</v>
+      </c>
+      <c r="C36" s="1">
+        <v>91.857142857142804</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35000000000000014</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="1">
+        <v>96.571428571428498</v>
+      </c>
+      <c r="C37" s="1">
+        <v>92</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="0"/>
+        <v>0.36000000000000015</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="1">
+        <v>96.857142857142804</v>
+      </c>
+      <c r="C38" s="1">
+        <v>93.571428571428498</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="0"/>
+        <v>0.37000000000000016</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="1">
+        <v>97</v>
+      </c>
+      <c r="C39" s="1">
+        <v>93.571428571428498</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="0"/>
+        <v>0.38000000000000017</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="1">
+        <v>97.142857142857096</v>
+      </c>
+      <c r="C40" s="1">
+        <v>93.857142857142804</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="0"/>
+        <v>0.39000000000000018</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="1">
+        <v>97.428571428571402</v>
+      </c>
+      <c r="C41" s="1">
+        <v>94.571428571428498</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="0"/>
+        <v>0.40000000000000019</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="1">
+        <v>98.428571428571402</v>
+      </c>
+      <c r="C42" s="1">
+        <v>94.857142857142804</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="0"/>
+        <v>0.4100000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="1">
+        <v>98.714285714285694</v>
+      </c>
+      <c r="C43" s="1">
+        <v>95</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="0"/>
+        <v>0.42000000000000021</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="1">
+        <v>99.428571428571402</v>
+      </c>
+      <c r="C44" s="1">
+        <v>95.142857142857096</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="0"/>
+        <v>0.43000000000000022</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="1">
+        <v>99.571428571428498</v>
+      </c>
+      <c r="C45" s="1">
+        <v>95.571428571428498</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="0"/>
+        <v>0.44000000000000022</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46" s="1">
+        <v>99.714285714285694</v>
+      </c>
+      <c r="C46" s="1">
+        <v>95.714285714285694</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="0"/>
+        <v>0.45000000000000023</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47" s="1">
+        <v>100</v>
+      </c>
+      <c r="C47" s="1">
+        <v>96</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="0"/>
+        <v>0.46000000000000024</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48" s="1">
+        <v>100.28571428571399</v>
+      </c>
+      <c r="C48" s="1">
+        <v>96.142857142857096</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="0"/>
+        <v>0.47000000000000025</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="1">
+        <v>100.28571428571399</v>
+      </c>
+      <c r="C49" s="1">
+        <v>96.714285714285694</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="0"/>
+        <v>0.48000000000000026</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="1">
+        <v>100.428571428571</v>
+      </c>
+      <c r="C50" s="1">
+        <v>96.857142857142804</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="0"/>
+        <v>0.49000000000000027</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="1">
+        <v>101.142857142857</v>
+      </c>
+      <c r="C51" s="1">
+        <v>97.142857142857096</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000022</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="1">
+        <v>101.28571428571399</v>
+      </c>
+      <c r="C52" s="1">
+        <v>97.428571428571402</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="0"/>
+        <v>0.51000000000000023</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" s="1">
+        <v>101.571428571428</v>
+      </c>
+      <c r="C53" s="1">
+        <v>97.714285714285694</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="0"/>
+        <v>0.52000000000000024</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="1">
+        <v>101.85714285714199</v>
+      </c>
+      <c r="C54" s="1">
+        <v>98</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="0"/>
+        <v>0.53000000000000025</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="1">
+        <v>102.142857142857</v>
+      </c>
+      <c r="C55" s="1">
+        <v>98.142857142857096</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="0"/>
+        <v>0.54000000000000026</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="1">
+        <v>102.142857142857</v>
+      </c>
+      <c r="C56" s="1">
+        <v>98.714285714285694</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000027</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" s="1">
+        <v>102.571428571428</v>
+      </c>
+      <c r="C57" s="1">
+        <v>99.714285714285694</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000028</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58" s="1">
+        <v>102.571428571428</v>
+      </c>
+      <c r="C58" s="1">
+        <v>100</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="0"/>
+        <v>0.57000000000000028</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" s="1">
+        <v>102.85714285714199</v>
+      </c>
+      <c r="C59" s="1">
+        <v>101</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="0"/>
+        <v>0.58000000000000029</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60" s="1">
+        <v>103.28571428571399</v>
+      </c>
+      <c r="C60" s="1">
+        <v>101.142857142857</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5900000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B61" s="1">
+        <v>103.28571428571399</v>
+      </c>
+      <c r="C61" s="1">
+        <v>101.85714285714199</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000031</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B62" s="1">
+        <v>103.571428571428</v>
+      </c>
+      <c r="C62" s="1">
+        <v>101.85714285714199</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="0"/>
+        <v>0.61000000000000032</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63" s="1">
+        <v>103.571428571428</v>
+      </c>
+      <c r="C63" s="1">
+        <v>102.428571428571</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="0"/>
+        <v>0.62000000000000033</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64" s="1">
+        <v>103.85714285714199</v>
+      </c>
+      <c r="C64" s="1">
+        <v>102.428571428571</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="0"/>
+        <v>0.63000000000000034</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" s="1">
+        <v>104.28571428571399</v>
+      </c>
+      <c r="C65" s="1">
+        <v>103.142857142857</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="0"/>
+        <v>0.64000000000000035</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" s="1">
+        <v>104.28571428571399</v>
+      </c>
+      <c r="C66" s="1">
+        <v>103.714285714285</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="0"/>
+        <v>0.65000000000000036</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" s="1">
+        <v>104.428571428571</v>
+      </c>
+      <c r="C67" s="1">
+        <v>104.714285714285</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" si="0"/>
+        <v>0.66000000000000036</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" s="1">
+        <v>105</v>
+      </c>
+      <c r="C68" s="1">
+        <v>104.85714285714199</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" ref="D68:D101" si="1">1/100+D67</f>
+        <v>0.67000000000000037</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69" s="1">
+        <v>106</v>
+      </c>
+      <c r="C69" s="1">
+        <v>105</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="1"/>
+        <v>0.68000000000000038</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" s="1">
+        <v>106</v>
+      </c>
+      <c r="C70" s="1">
+        <v>105.28571428571399</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="1"/>
+        <v>0.69000000000000039</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71" s="1">
+        <v>106</v>
+      </c>
+      <c r="C71" s="1">
+        <v>105.428571428571</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="1"/>
+        <v>0.7000000000000004</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72" s="1">
+        <v>106.714285714285</v>
+      </c>
+      <c r="C72" s="1">
+        <v>106.142857142857</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" si="1"/>
+        <v>0.71000000000000041</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B73" s="1">
+        <v>107</v>
+      </c>
+      <c r="C73" s="1">
+        <v>106.142857142857</v>
+      </c>
+      <c r="D73" s="1">
+        <f t="shared" si="1"/>
+        <v>0.72000000000000042</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B74" s="1">
+        <v>107.28571428571399</v>
+      </c>
+      <c r="C74" s="1">
+        <v>106.28571428571399</v>
+      </c>
+      <c r="D74" s="1">
+        <f t="shared" si="1"/>
+        <v>0.73000000000000043</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B75" s="1">
+        <v>108.142857142857</v>
+      </c>
+      <c r="C75" s="1">
+        <v>107</v>
+      </c>
+      <c r="D75" s="1">
+        <f t="shared" si="1"/>
+        <v>0.74000000000000044</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76" s="1">
+        <v>108.142857142857</v>
+      </c>
+      <c r="C76" s="1">
+        <v>107.28571428571399</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" si="1"/>
+        <v>0.75000000000000044</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B77" s="1">
+        <v>108.28571428571399</v>
+      </c>
+      <c r="C77" s="1">
+        <v>107.28571428571399</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="1"/>
+        <v>0.76000000000000045</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B78" s="1">
+        <v>110</v>
+      </c>
+      <c r="C78" s="1">
+        <v>107.428571428571</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" si="1"/>
+        <v>0.77000000000000046</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B79" s="1">
+        <v>110.428571428571</v>
+      </c>
+      <c r="C79" s="1">
+        <v>108.28571428571399</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" si="1"/>
+        <v>0.78000000000000047</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B80" s="1">
+        <v>110.571428571428</v>
+      </c>
+      <c r="C80" s="1">
+        <v>108.714285714285</v>
+      </c>
+      <c r="D80" s="1">
+        <f t="shared" si="1"/>
+        <v>0.79000000000000048</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="1">
+        <v>110.714285714285</v>
+      </c>
+      <c r="C81" s="1">
+        <v>108.85714285714199</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" si="1"/>
+        <v>0.80000000000000049</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B82" s="1">
+        <v>112.142857142857</v>
+      </c>
+      <c r="C82" s="1">
+        <v>109.428571428571</v>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" si="1"/>
+        <v>0.8100000000000005</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83" s="1">
+        <v>112.142857142857</v>
+      </c>
+      <c r="C83" s="1">
+        <v>109.428571428571</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" si="1"/>
+        <v>0.82000000000000051</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B84" s="1">
+        <v>112.142857142857</v>
+      </c>
+      <c r="C84" s="1">
+        <v>109.571428571428</v>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" si="1"/>
+        <v>0.83000000000000052</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="1">
+        <v>112.142857142857</v>
+      </c>
+      <c r="C85" s="1">
+        <v>109.85714285714199</v>
+      </c>
+      <c r="D85" s="1">
+        <f t="shared" si="1"/>
+        <v>0.84000000000000052</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B86" s="1">
+        <v>112.85714285714199</v>
+      </c>
+      <c r="C86" s="1">
+        <v>110</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="shared" si="1"/>
+        <v>0.85000000000000053</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B87" s="1">
+        <v>114.571428571428</v>
+      </c>
+      <c r="C87" s="1">
+        <v>110.428571428571</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" si="1"/>
+        <v>0.86000000000000054</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B88" s="1">
+        <v>115.28571428571399</v>
+      </c>
+      <c r="C88" s="1">
+        <v>112.571428571428</v>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" si="1"/>
+        <v>0.87000000000000055</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B89" s="1">
+        <v>115.428571428571</v>
+      </c>
+      <c r="C89" s="1">
+        <v>112.571428571428</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" si="1"/>
+        <v>0.88000000000000056</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B90" s="1">
+        <v>116</v>
+      </c>
+      <c r="C90" s="1">
+        <v>112.571428571428</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="1"/>
+        <v>0.89000000000000057</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B91" s="1">
+        <v>116.428571428571</v>
+      </c>
+      <c r="C91" s="1">
+        <v>112.85714285714199</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="1"/>
+        <v>0.90000000000000058</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B92" s="1">
+        <v>116.428571428571</v>
+      </c>
+      <c r="C92" s="1">
+        <v>113.85714285714199</v>
+      </c>
+      <c r="D92" s="1">
+        <f t="shared" si="1"/>
+        <v>0.91000000000000059</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B93" s="1">
+        <v>117.714285714285</v>
+      </c>
+      <c r="C93" s="1">
+        <v>113.85714285714199</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9200000000000006</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B94" s="1">
+        <v>120.714285714285</v>
+      </c>
+      <c r="C94" s="1">
+        <v>114.571428571428</v>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9300000000000006</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B95" s="1">
+        <v>120.85714285714199</v>
+      </c>
+      <c r="C95" s="1">
+        <v>114.571428571428</v>
+      </c>
+      <c r="D95" s="1">
+        <f t="shared" si="1"/>
+        <v>0.94000000000000061</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B96" s="1">
+        <v>123.571428571428</v>
+      </c>
+      <c r="C96" s="1">
+        <v>115.571428571428</v>
+      </c>
+      <c r="D96" s="1">
+        <f t="shared" si="1"/>
+        <v>0.95000000000000062</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B97" s="1">
+        <v>124.142857142857</v>
+      </c>
+      <c r="C97" s="1">
+        <v>117.142857142857</v>
+      </c>
+      <c r="D97" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96000000000000063</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B98" s="1">
+        <v>127.85714285714199</v>
+      </c>
+      <c r="C98" s="1">
+        <v>118</v>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" si="1"/>
+        <v>0.97000000000000064</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B99" s="1">
+        <v>128.42857142857099</v>
+      </c>
+      <c r="C99" s="1">
+        <v>119.142857142857</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98000000000000065</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B100" s="1">
+        <v>130</v>
+      </c>
+      <c r="C100" s="1">
+        <v>123</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99000000000000066</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B101" s="1">
+        <v>130.71428571428501</v>
+      </c>
+      <c r="C101" s="1">
+        <v>125.28571428571399</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000007</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="C2:C102">
+    <sortCondition ref="C1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7259,10 +8611,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7270,116 +8622,124 @@
     <col min="1" max="4" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
       <c r="B2" s="1">
+        <v>41.2</v>
+      </c>
+      <c r="C2" s="1">
         <v>43.25</v>
       </c>
-      <c r="C2" s="1">
-        <v>41.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3" s="1">
+        <v>40.35</v>
+      </c>
+      <c r="C3" s="1">
         <v>45.8</v>
       </c>
-      <c r="C3" s="1">
-        <v>40.35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="1">
+        <v>203.1</v>
+      </c>
+      <c r="C4" s="1">
         <v>220.35</v>
       </c>
-      <c r="C4" s="1">
-        <v>203.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
       </c>
       <c r="B5" s="1">
+        <v>139.94999999999999</v>
+      </c>
+      <c r="C5" s="1">
         <v>179.55</v>
       </c>
-      <c r="C5" s="1">
-        <v>139.94999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
       </c>
       <c r="B6" s="1">
+        <v>124.6</v>
+      </c>
+      <c r="C6" s="1">
         <v>145.30000000000001</v>
       </c>
-      <c r="C6" s="1">
-        <v>124.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="1">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1">
         <v>41.5</v>
       </c>
-      <c r="C7" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
       </c>
       <c r="B8" s="1">
+        <v>56.55</v>
+      </c>
+      <c r="C8" s="1">
         <v>50.45</v>
       </c>
-      <c r="C8" s="1">
-        <v>56.55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9">
         <f>SUM(B2:B8)</f>
-        <v>726.2</v>
+        <v>646.74999999999989</v>
       </c>
       <c r="C9">
         <f>SUM(C2:C8)</f>
-        <v>646.74999999999989</v>
+        <v>726.2</v>
       </c>
       <c r="D9"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1">
         <f>(B9-C9)/C9</f>
-        <v>0.12284499420177838</v>
+        <v>-0.10940512255576998</v>
       </c>
     </row>
   </sheetData>

--- a/simulation/one-taxi/output/结合边缘比较/对比-司机巡游时间.xlsx
+++ b/simulation/one-taxi/output/结合边缘比较/对比-司机巡游时间.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEBCACE-9DC0-4C62-A173-C0BB177F0679}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99E0307-8038-498E-9E95-DEA3CC6683EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="855" windowWidth="23625" windowHeight="13065" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2051,6 +2052,61 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>CDF of Seeking time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -3520,6 +3576,7 @@
         <c:axId val="1877519823"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3537,6 +3594,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Percent</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7348,7 +7460,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8600,7 +8712,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="C2:C102">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C102">
     <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
